--- a/biology/Médecine/Francesco_Racanelli/Francesco_Racanelli.xlsx
+++ b/biology/Médecine/Francesco_Racanelli/Francesco_Racanelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francesco Racanelli (né à Sannicandro di Bari dans les Pouilles en 1904 et mort à Florence en 1977) est un médecin et écrivain italien, à l’origine d’une thérapie non conventionnelle qu’il dénomme « médecine bioradiante ».
 </t>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synopsis
-Francesco Racanelli naît en 1904 à Sannicandro di Bari[1],[2],[6],[13]. Il croit détenir un don particulier dans les mains[10]. Il en émanerait, selon lui, un « fluide vital[7] » qu’il qualifie d’« énergie bioradiante[8],[9],[3],[5] ». Il est continuellement poursuivi par le Conseil de l’Ordre des médecins pour exercice illégal de la médecine[4]. Pour éviter d’avoir à affronter de nouveaux problèmes juridiques, il décide d’entreprendre des études de médecine et devient médecin[14],[15],[16]. Il traite les blessés à Florence pendant la libération de l’Italie[17]. Il exerce conjointement son activité de Heilpraktiker[11], guérisseur[8],[12], pranothérapeute[1],[10],[5] et médecin à Florence[8],[18],[19].
-Francesco Racanelli meurt à Florence en 1977[3].
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francesco Racanelli naît en 1904 à Sannicandro di Bari. Il croit détenir un don particulier dans les mains. Il en émanerait, selon lui, un « fluide vital » qu’il qualifie d’« énergie bioradiante ». Il est continuellement poursuivi par le Conseil de l’Ordre des médecins pour exercice illégal de la médecine. Pour éviter d’avoir à affronter de nouveaux problèmes juridiques, il décide d’entreprendre des études de médecine et devient médecin. Il traite les blessés à Florence pendant la libération de l’Italie. Il exerce conjointement son activité de Heilpraktiker, guérisseur pranothérapeute et médecin à Florence.
+Francesco Racanelli meurt à Florence en 1977.
 </t>
         </is>
       </c>
@@ -546,44 +563,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poursuites judiciaires
-Escobedo
-Dans le volume 59 du périodique « La justice pénale[trad 1] » de l'année 1954, Gennaro Escobedo rapporte que  « l'arrêté du tribunal de Catane en jurisprudence sicilienne de 1951 parvient en dernier ressort à une conclusion formelle selon laquelle la cour se doit d'admettre qu'attendu quelque éclairage prédominant paraissant prévaloir dans certaines écoles médicales non officielles (du moins l'espérons-nous) ... le Dr Racanelli, médecin agréé et guérisseur réputé, affirme dans ses ouvrages que le fluide relève d'une énergie vitale émanant de personnes particulièrement douées dont les ressources reposent sur les fondements inhérents à la vibration physique, psychique et spirituelle du guérisseur[7],[trad 2]. »
-Lamendola
-Le professeur Francesco Lamendola, docteur ès lettres et philosophie, écrit que l’activité « illicite » de « guérisseur » de Francesco Racanelli lui vaut, au début de sa carrière, d’être poursuivi à cinq reprises par le Conseil de l’Ordre des médecins italien (it)[6]. Titulaire d’une maîtrise universitaire en droit[4],[5],[6], il décide de régulariser sa situation auprès des autorités compétentes afin de pouvoir exercer son activité thérapeutique en toute légalité[14],[15],[16],[trad 3]. Il  accomplit le cycle complet des études de médecine à l’université de Florence[6] où il obtient son doctorat en médecine et en chirurgie en 1935[6].
-Travaux universitaires
-Fumia
-En 1972, Luigi Fumia et Tullio Seppilli posent les bases d’une première étude universitaire intitulée Francesco Racanelli, un médecin guérisseur[20].
-Seppilli
-En 1983, Tullio Seppilli, qui avait assuré la direction scientifique du rapport de 1972[20], reprend une partie des travaux de son prédécesseur dans une thèse de doctorat consacrée à « la médecine populaire en Italie » pour le compte de l’université de Pérouse[21]. Le contenu de cette rédaction est ensuite publié dans la revue La ricerca folklorica du mois d’octobre 1983[21].
-Calabrese &amp; Borghini
-Dans une autre thèse universitaire déposée le 1er décembre 2009 à la faculté d’architecture de l’école polytechnique de Turin, Loreto Calabrese et Alberto Borghini dressent un parallèle avec la « bioradiance » évoquée par Francesco Racanelli au regard d’autres courants « ésotériques » apparentés : 
-« Cette substance présente dans tout l’univers, c’est l’énergie vitale, appelée « lumière » par Jésus-Christ, vis medicatrix naturae (en) ou « pouvoir de guérison naturelle » par Hippocrate, « prāṇa (devanāgarī: प्राण ) » par l’hindouisme, « Chi » par les Chinois, 気 (ki) par les Japonais, རླུང (en) (rlung) par le bouddhisme tibétain, « orgone » par Wilhelm Reich, « force plasmatique éthérique[N 1] » par Rudolf Steiner[22], « libido » par Sigmund Freud, « énergie bioradiante » par Francesco Racanelli[23],[trad 4]. »
-Observations
-L’auteur Stefano Fusi relève que le docteur Racanelli opère un distinguo entre la notion de prāṇa (devanāgarī: प्राण ) en vigueur chez les Indiens et le magnétisme humain[N 2] mis en exergue par feu le docteur Franz-Anton Mesmer[N 2]. Selon Racanelli, ainsi que mentionné dans son ouvrage Medicina bioradiante[24] paru en 1951 et traduit en français en 1973 par L’Autre Médecine : les radiations humaines[25] » puis réédité en italien en 1978 sous le titre « L’altra medicina[26],[3] », le prāṇa n’est pas généré par le corps physique de l’homme « mais il est prodigué par l’influx nerveux qui lui sert de véhicule selon un mécanisme analogue à celui du sang par rapport à l’oxygène[27],[trad 5]. »
-Philosophie
-Dans l’un de ses premiers ouvrages intitulé La Douleur et sa médecine : les conseils prodigués par un célèbre médecin guérisseur[28] paru en 1939 aux éditions Giannini &amp; Giovannelli puis réédité à sept reprises chez Vallecchi, le docteur Racanelli expose les fondements sur lesquels repose son approche éthique, philosophique, déontologique et spirituelle : 
-développer l’entièreté des facettes plurielles inhérentes à l’harmonie intérieure[28]
-asseoir les bases et fondations d’une aspiration spirituelle croissante[28]
-s’évertuer à rester soi-même au lieu de chercher à paraître[28]
-s’atteler à percevoir le sens des réalités cachées, aller au-delà du rideau trompeur des apparences premières[28]
-cultiver incessamment sa joie de vivre[28]
-sublimer les bases éthiques d’une sagesse philosophique[28]
-conserver intact et inaltéré un sens aigu de la justice[28]
-vouer un respect égal et constant envers autrui, quel qu'il soit[28]
-considérer chaque obstacle qui se présente comme une aubaine inespérée permettant de se surpasser[28]
-apprendre à apprivoiser la perspective de la mort subordonnée à l’inéluctabilité de notre propre finitude[28]
-Protocole
-Dans un ouvrage collectif paru en 1976, Massimo Inardi (it) rapporte le contenu d’un entretien avec Francesco Racanelli. Celui-ci lui expose sa vision du processus thérapeutique en cours ; il y décrit quelques-unes des modalités participatives qui, d’après lui, contribuent à l’amélioration de toute condition sanitaire : 
-« Je recours à cette « énergie bioradiante » pour soigner les malades. En d’autres termes, ce courant d’énergie magnétique peut être utilisé à des fins thérapeutiques et, en tant que tel, agir de façon salutaire sur les zones perturbées, partant du principe que chacun d’entre nous entretient des liens indestructibles avec le monde vivant, avec les sentiments qui nous animent, avec la communauté qui nous entoure, avec le macrocosme dont nous faisons partie intégrante, avec le créateur dont nous sommes par essence les créatures. Œuvrer à la restauration de la santé requiert une approche à la fois scientifique et artistique. En premier lieu, le thérapeute devra faire abstraction de tout conditionnement humain d’ordre suggestif ou possessif. Sa position de mari, de père, d’ami, de simple citadin ou même de croyant devra impérativement passer au second plan et se trouver uniquement subordonnée au devoir prioritaire relevant de l’exercice médical. C’est ainsi qu’avant chacune de mes séances quotidiennes, alors que je me prépare à endosser ma blouse de médecin, je m’astreins obligatoirement à mettre en œuvre ce processus interne de fractionnement intérieur en procédant à une forme d’abolition de ma personnalité émotive et possessive ; ma mission curative acquiert ainsi valeur de sacrement rituel[29],[trad 6]. »
-Hasard
-Interrogé sur les circonstances qui lui auraient permis de constater qu’il aurait été doté de qualités thérapeutiques particulières, Racanelli répondit comme suit :
-« La découverte de notre don est hélas inéluctablement soumise aux lois du hasard. Les « vrais » guérisseurs — j’entends par là : ceux qui font preuve d’honnêteté et de bonne foi, outre d’être dotés de pouvoirs curatifs attestés — sont, la plupart du temps, des gens au demeurant fort simples. Leurs facultés peuvent se déclencher à l’improviste, par exemple à l’occasion d’un accident de la route dont ils seraient inopinément les témoins et au cours duquel ils se retrouveraient implicitement amenés à devoir porter secours et assistance à une personne en danger ou grièvement blessée. À cet instant précis, ils constateront, à leur grande surprise, qu’ils sont en mesure de soulager leur prochain ; dès lors, ils ne connaitront plus de répit, car ils ne seront désormais plus en mesure de se soustraire aux demandes récurrentes de malades qui leur accorderont incessamment leur confiance renouvelée en sollicitant expressément leur aide. C’est ce qui m’est arrivé à moi-même ainsi qu’à la plupart de mes collègues[30],[trad 7] »
-Vocation
-Dans un livre intitulé « Dépression : à chacun son traitement[trad 8] », Elio et Ivan Blancato rapportent que « Francesco Racanelli était le seul à affirmer combien le guérisseur véritable exerce son atout thérapeutique essentiellement par instinct, mu par un besoin inconscient d'aider son prochain en lui offrant spontanément l'énergie vitale qu'il sent pulser au travers de ses mains[31],[trad 9]. »
-Constat
-En juillet 1976, lors du 10e Congrès international de psychothérapie à Paris, Jean-Claude Benoit[33] et l’International Federation for Medical Psychoterapy[15] formulent un constat relayé en décembre 1976 par l’Union médicale du Canada[14] : 
-« Ajoutons que les écrits émanant des guérisseurs ne nous éclairent pas davantage. Même un homme instruit et fort intelligent comme le guérisseur italien Racanelli, qui fit ses études de médecine pour éviter les poursuites, ne nous apporte dans ses livres que des explications vagues et sans aucune valeur scientifique sur les guérisons effectuées par lui[33]. »
+          <t>Poursuites judiciaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Escobedo</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le volume 59 du périodique « La justice pénale[trad 1] » de l'année 1954, Gennaro Escobedo rapporte que  « l'arrêté du tribunal de Catane en jurisprudence sicilienne de 1951 parvient en dernier ressort à une conclusion formelle selon laquelle la cour se doit d'admettre qu'attendu quelque éclairage prédominant paraissant prévaloir dans certaines écoles médicales non officielles (du moins l'espérons-nous) ... le Dr Racanelli, médecin agréé et guérisseur réputé, affirme dans ses ouvrages que le fluide relève d'une énergie vitale émanant de personnes particulièrement douées dont les ressources reposent sur les fondements inhérents à la vibration physique, psychique et spirituelle du guérisseur,[trad 2]. »
 </t>
         </is>
       </c>
@@ -609,31 +599,574 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poursuites judiciaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lamendola</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le professeur Francesco Lamendola, docteur ès lettres et philosophie, écrit que l’activité « illicite » de « guérisseur » de Francesco Racanelli lui vaut, au début de sa carrière, d’être poursuivi à cinq reprises par le Conseil de l’Ordre des médecins italien (it). Titulaire d’une maîtrise universitaire en droit il décide de régulariser sa situation auprès des autorités compétentes afin de pouvoir exercer son activité thérapeutique en toute légalité[trad 3]. Il  accomplit le cycle complet des études de médecine à l’université de Florence où il obtient son doctorat en médecine et en chirurgie en 1935.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Travaux universitaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fumia</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1972, Luigi Fumia et Tullio Seppilli posent les bases d’une première étude universitaire intitulée Francesco Racanelli, un médecin guérisseur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Travaux universitaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Seppilli</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1983, Tullio Seppilli, qui avait assuré la direction scientifique du rapport de 1972, reprend une partie des travaux de son prédécesseur dans une thèse de doctorat consacrée à « la médecine populaire en Italie » pour le compte de l’université de Pérouse. Le contenu de cette rédaction est ensuite publié dans la revue La ricerca folklorica du mois d’octobre 1983.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Travaux universitaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Calabrese &amp; Borghini</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dans une autre thèse universitaire déposée le 1er décembre 2009 à la faculté d’architecture de l’école polytechnique de Turin, Loreto Calabrese et Alberto Borghini dressent un parallèle avec la « bioradiance » évoquée par Francesco Racanelli au regard d’autres courants « ésotériques » apparentés : 
+« Cette substance présente dans tout l’univers, c’est l’énergie vitale, appelée « lumière » par Jésus-Christ, vis medicatrix naturae (en) ou « pouvoir de guérison naturelle » par Hippocrate, « prāṇa (devanāgarī: प्राण ) » par l’hindouisme, « Chi » par les Chinois, 気 (ki) par les Japonais, རླུང (en) (rlung) par le bouddhisme tibétain, « orgone » par Wilhelm Reich, « force plasmatique éthérique[N 1] » par Rudolf Steiner, « libido » par Sigmund Freud, « énergie bioradiante » par Francesco Racanelli,[trad 4]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Observations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’auteur Stefano Fusi relève que le docteur Racanelli opère un distinguo entre la notion de prāṇa (devanāgarī: प्राण ) en vigueur chez les Indiens et le magnétisme humain[N 2] mis en exergue par feu le docteur Franz-Anton Mesmer[N 2]. Selon Racanelli, ainsi que mentionné dans son ouvrage Medicina bioradiante paru en 1951 et traduit en français en 1973 par L’Autre Médecine : les radiations humaines » puis réédité en italien en 1978 sous le titre « L’altra medicina, », le prāṇa n’est pas généré par le corps physique de l’homme « mais il est prodigué par l’influx nerveux qui lui sert de véhicule selon un mécanisme analogue à celui du sang par rapport à l’oxygène,[trad 5]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans l’un de ses premiers ouvrages intitulé La Douleur et sa médecine : les conseils prodigués par un célèbre médecin guérisseur paru en 1939 aux éditions Giannini &amp; Giovannelli puis réédité à sept reprises chez Vallecchi, le docteur Racanelli expose les fondements sur lesquels repose son approche éthique, philosophique, déontologique et spirituelle : 
+développer l’entièreté des facettes plurielles inhérentes à l’harmonie intérieure
+asseoir les bases et fondations d’une aspiration spirituelle croissante
+s’évertuer à rester soi-même au lieu de chercher à paraître
+s’atteler à percevoir le sens des réalités cachées, aller au-delà du rideau trompeur des apparences premières
+cultiver incessamment sa joie de vivre
+sublimer les bases éthiques d’une sagesse philosophique
+conserver intact et inaltéré un sens aigu de la justice
+vouer un respect égal et constant envers autrui, quel qu'il soit
+considérer chaque obstacle qui se présente comme une aubaine inespérée permettant de se surpasser
+apprendre à apprivoiser la perspective de la mort subordonnée à l’inéluctabilité de notre propre finitude</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protocole</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Dans un ouvrage collectif paru en 1976, Massimo Inardi (it) rapporte le contenu d’un entretien avec Francesco Racanelli. Celui-ci lui expose sa vision du processus thérapeutique en cours ; il y décrit quelques-unes des modalités participatives qui, d’après lui, contribuent à l’amélioration de toute condition sanitaire : 
+« Je recours à cette « énergie bioradiante » pour soigner les malades. En d’autres termes, ce courant d’énergie magnétique peut être utilisé à des fins thérapeutiques et, en tant que tel, agir de façon salutaire sur les zones perturbées, partant du principe que chacun d’entre nous entretient des liens indestructibles avec le monde vivant, avec les sentiments qui nous animent, avec la communauté qui nous entoure, avec le macrocosme dont nous faisons partie intégrante, avec le créateur dont nous sommes par essence les créatures. Œuvrer à la restauration de la santé requiert une approche à la fois scientifique et artistique. En premier lieu, le thérapeute devra faire abstraction de tout conditionnement humain d’ordre suggestif ou possessif. Sa position de mari, de père, d’ami, de simple citadin ou même de croyant devra impérativement passer au second plan et se trouver uniquement subordonnée au devoir prioritaire relevant de l’exercice médical. C’est ainsi qu’avant chacune de mes séances quotidiennes, alors que je me prépare à endosser ma blouse de médecin, je m’astreins obligatoirement à mettre en œuvre ce processus interne de fractionnement intérieur en procédant à une forme d’abolition de ma personnalité émotive et possessive ; ma mission curative acquiert ainsi valeur de sacrement rituel,[trad 6]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hasard</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interrogé sur les circonstances qui lui auraient permis de constater qu’il aurait été doté de qualités thérapeutiques particulières, Racanelli répondit comme suit :
+« La découverte de notre don est hélas inéluctablement soumise aux lois du hasard. Les « vrais » guérisseurs — j’entends par là : ceux qui font preuve d’honnêteté et de bonne foi, outre d’être dotés de pouvoirs curatifs attestés — sont, la plupart du temps, des gens au demeurant fort simples. Leurs facultés peuvent se déclencher à l’improviste, par exemple à l’occasion d’un accident de la route dont ils seraient inopinément les témoins et au cours duquel ils se retrouveraient implicitement amenés à devoir porter secours et assistance à une personne en danger ou grièvement blessée. À cet instant précis, ils constateront, à leur grande surprise, qu’ils sont en mesure de soulager leur prochain ; dès lors, ils ne connaitront plus de répit, car ils ne seront désormais plus en mesure de se soustraire aux demandes récurrentes de malades qui leur accorderont incessamment leur confiance renouvelée en sollicitant expressément leur aide. C’est ce qui m’est arrivé à moi-même ainsi qu’à la plupart de mes collègues,[trad 7] »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vocation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un livre intitulé « Dépression : à chacun son traitement[trad 8] », Elio et Ivan Blancato rapportent que « Francesco Racanelli était le seul à affirmer combien le guérisseur véritable exerce son atout thérapeutique essentiellement par instinct, mu par un besoin inconscient d'aider son prochain en lui offrant spontanément l'énergie vitale qu'il sent pulser au travers de ses mains,[trad 9]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Constat</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+En juillet 1976, lors du 10e Congrès international de psychothérapie à Paris, Jean-Claude Benoit et l’International Federation for Medical Psychoterapy formulent un constat relayé en décembre 1976 par l’Union médicale du Canada : 
+« Ajoutons que les écrits émanant des guérisseurs ne nous éclairent pas davantage. Même un homme instruit et fort intelligent comme le guérisseur italien Racanelli, qui fit ses études de médecine pour éviter les poursuites, ne nous apporte dans ses livres que des explications vagues et sans aucune valeur scientifique sur les guérisons effectuées par lui. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Livres
-(it) Francesco Racanelli, Il dolore e la sua medicina. I consigli di un celebre guaritore medico, Vallecchi, coll. « Il millepiedi, Guide mediche », 1976 (réimpr. 1948, 1950, 1955, 1965, 1970), 7e éd. (1re éd. Giannini &amp; Giovannelli: 1939), 218 p. (OCLC 797509088)[28],[3]
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(it) Francesco Racanelli, Il dolore e la sua medicina. I consigli di un celebre guaritore medico, Vallecchi, coll. « Il millepiedi, Guide mediche », 1976 (réimpr. 1948, 1950, 1955, 1965, 1970), 7e éd. (1re éd. Giannini &amp; Giovannelli: 1939), 218 p. (OCLC 797509088),
 (it) Francesco Racanelli, Terra di nessuno, terra per tutti, F. Le Monnier, 1948, 80 p. (OCLC 122438578)
 (it) Francesco Racanelli, Il dono della guarigione, Vallecchi, 1950 (1re éd. 1949), 297 p. (OCLC 633988784)
 (it) Francesco Racanelli, Medicina bioradiante, Vallecchi, 1951, 238 p. (OCLC 14649906)
-(it) Francesco Racanelli, Natura e anime, Vallecchi, 1977, 148 p., Neuf contes 1945–1975 (OCLC 3849053)[3]
-(it) Francesco Racanelli, L’altra medicina, Vallecchi, 1978, 3e éd., 174 p. (OCLC 4777902)[3]
-Articles
-(en) Francesco Racanelli, Heterodox therapy : Healers, vol. 1-3 : Rassegna Italiana di Ricerca Psichica, Database: PsycINFO, 1969 (réimpr. 2011 American Psychological Association) (présentation en ligne), p. 21-34
+(it) Francesco Racanelli, Natura e anime, Vallecchi, 1977, 148 p., Neuf contes 1945–1975 (OCLC 3849053)
+(it) Francesco Racanelli, L’altra medicina, Vallecchi, 1978, 3e éd., 174 p. (OCLC 4777902)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(en) Francesco Racanelli, Heterodox therapy : Healers, vol. 1-3 : Rassegna Italiana di Ricerca Psichica, Database: PsycINFO, 1969 (réimpr. 2011 American Psychological Association) (présentation en ligne), p. 21-34
 (it) Francesco Racanelli, L’uomo agente terapeutico, 1970, 21 p. (OCLC 800991317)
-(it) Francesco Racanelli, La via dell’amore, 1971, 7 p., article (OCLC 800991412)
-Traductions en français
-Francesco Racanelli (trad. Alice Grisel), Le don de guérison [« Il dono della guarigione »], Neuchâtel, Paris, Delachaux &amp; Niestlé, 1951, 200 p. (OCLC 459662763, BNF 32552178, SUDOC 012983349)
+(it) Francesco Racanelli, La via dell’amore, 1971, 7 p., article (OCLC 800991412)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Francesco Racanelli (trad. Alice Grisel), Le don de guérison [« Il dono della guarigione »], Neuchâtel, Paris, Delachaux &amp; Niestlé, 1951, 200 p. (OCLC 459662763, BNF 32552178, SUDOC 012983349)
 Francesco Racanelli (trad. P. Siron), La souffrance vaincue, Neuchâtel ; Paris ; Bruxelles, Delachaux &amp; Niestlé, 1954, 199 p. (OCLC 81636495)
 Francesco Racanelli (trad. les amis de l’Aquario), L’autre médecine : les radiations humaines [« L’altra medicina : le radiazioni umane »], Neuchâtel ; Paris ; Bruxelles, Delachaux &amp; Niestlé, coll. « Homme et ses problèmes », 1973, 151 p., édition remaniée de l’ouvrage intitulé : Don de guérison. Précédemment paru en italien sous le titre : Medicina bioradiante et en français sous le titre :  Don de guérison (OCLC 418403735, BNF 34567280)
-Francesco Racanelli (trad. René Marti), Le problème du mal et la signification de la maladie [« Problema del male e significato della malattia »], Neuchâtel, R. Marti, 1978 (OCLC 718631225)
-Traduction en allemand
-(de) Francesco Racanelli (trad. Sylvia Naegeli), Gabe des Heilens [« Medicina bioradiante »], München-Planegg, O. W. Barth Verlag, 1953 (1re éd. 1951), 159 p. (OCLC 252603925 et 165044195)[34]
-Préface
-Bernard Martin (pasteur) (préf. Francesco Racanelli), Le Ministère de la guérison dans l’Église, Genève, Labor et fides, 1953, 2e éd. (1re éd. 1952 cf. OCLC 492122755), 176 p. (OCLC 401489767, BNF 32423470)</t>
+Francesco Racanelli (trad. René Marti), Le problème du mal et la signification de la maladie [« Problema del male e significato della malattia »], Neuchâtel, R. Marti, 1978 (OCLC 718631225)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Traduction en allemand</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(de) Francesco Racanelli (trad. Sylvia Naegeli), Gabe des Heilens [« Medicina bioradiante »], München-Planegg, O. W. Barth Verlag, 1953 (1re éd. 1951), 159 p. (OCLC 252603925 et 165044195)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francesco_Racanelli</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Préface</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bernard Martin (pasteur) (préf. Francesco Racanelli), Le Ministère de la guérison dans l’Église, Genève, Labor et fides, 1953, 2e éd. (1re éd. 1952 cf. OCLC 492122755), 176 p. (OCLC 401489767, BNF 32423470)</t>
         </is>
       </c>
     </row>
